--- a/src/test/resources/Manual test/Casos de prueba inlaze.xlsx
+++ b/src/test/resources/Manual test/Casos de prueba inlaze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7B16E8-56A1-4384-82E7-DD5C081451F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86FB622-14A2-4BD1-9F30-682D054BE97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2FB9F51C-07BC-4B68-A8A3-43D2EAC3173B}"/>
   </bookViews>
@@ -41,12 +41,6 @@
     <t>Case ID</t>
   </si>
   <si>
-    <t>nombre caso de prueba</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
     <t>Precondicion</t>
   </si>
   <si>
@@ -56,54 +50,21 @@
     <t xml:space="preserve">Validar que  se pueda registrar una cuenta </t>
   </si>
   <si>
-    <t>se debe validar que a registrar un usuario con nombre, email y contraseña, este sea exitoso</t>
-  </si>
-  <si>
-    <t>acceso a la pagina</t>
-  </si>
-  <si>
     <t>Registro exitoso</t>
   </si>
   <si>
-    <t>Validar que el campo nombre funcione correctamente con 2 palabras</t>
-  </si>
-  <si>
-    <t>se debe ingresar 2 palabra en el campo nombre a la hora de hacer el registro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar que el campo correo solo permita correo que cumplan el estandar de este </t>
-  </si>
-  <si>
-    <t xml:space="preserve">se debe ingresar un correo electronico que cumpla el estandar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Validar que el registro no permita un correo ya registrado </t>
   </si>
   <si>
-    <t>se debe ingresar un correo ya registrado para validar que este no permita correos repetidos</t>
-  </si>
-  <si>
     <t>Registro no exitoso</t>
   </si>
   <si>
-    <t>Validar que el campo contraseña permita el registro con una una contraseña de 8 caracteres</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validar que el registro no permita una contraseña de 7 o menos caracteres </t>
   </si>
   <si>
-    <t>se debe ingresar una contraseña de  7 caractares o menos para validar que este no permita el registro</t>
-  </si>
-  <si>
-    <t>se debe ingresar una contraseña de  8 caractares incluyendo una mayúscula, una minúscula, un número y un carácter especial para validar que este permita el registro</t>
-  </si>
-  <si>
     <t>Validar que el registro no permita una contraseña de 8 o mas caracteres que no contengas los tipos de caracteres que se requieren</t>
   </si>
   <si>
-    <t>se debe ingresar una contraseña de  8 caractares sin incluir un tipo de carácter ya sea  una mayúscula, una minúscula, un número y un carácter especial para validar que este permita el registro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validar que no se permita el registro hasta que todos los campo sean ingresados </t>
   </si>
   <si>
@@ -113,9 +74,6 @@
     <t xml:space="preserve">Se debe realizar el registro e ingresar en los campos contraseña 2 contraseñas que no coincidan </t>
   </si>
   <si>
-    <t>Mensaje: "contraseñas no coinciden"</t>
-  </si>
-  <si>
     <t>Validar que un usuario pueda loguearse con su usuario y contraseña</t>
   </si>
   <si>
@@ -128,18 +86,12 @@
     <t xml:space="preserve">Validar que no permita el registro cuando los 2 campos de contraseña no coincidan </t>
   </si>
   <si>
-    <t>se debe intentar loguearse sin haber ingresado todos los campos</t>
-  </si>
-  <si>
     <t>login no exitoso</t>
   </si>
   <si>
     <t>Validar que despues de loguearse se muestre el nombre del usuario en pantalla</t>
   </si>
   <si>
-    <t xml:space="preserve">se debe loguear y revisar que el nombre del usuario si este visible en pantalla </t>
-  </si>
-  <si>
     <t>nombre del usuario mostrado en la vista</t>
   </si>
   <si>
@@ -149,14 +101,7 @@
     <t xml:space="preserve">se debe cerrar la sesion de un usuario </t>
   </si>
   <si>
-    <t xml:space="preserve">acceso a la pagina
-</t>
-  </si>
-  <si>
     <t>sesion cerrada con éxito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datos de entrada </t>
   </si>
   <si>
     <t>Nombre: Pepe Perez
@@ -218,12 +163,67 @@
     <t>Validar que en el campo nombre recibe vocales con signos ortograficos</t>
   </si>
   <si>
-    <t xml:space="preserve">Se debe usar una o mas vocales en el nombre para el registro </t>
-  </si>
-  <si>
     <t>Nombre: A ó
 Correo:abcabc.com
 Contraseña:P1kac*</t>
+  </si>
+  <si>
+    <t>Validar que el campo nombre funcione correctamente usando 2 palabras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar que el campo correo solo permita correos que cumplan el estandar de este </t>
+  </si>
+  <si>
+    <t>Validar que el campo contraseña permita el registro con una contraseña de 8 caracteres</t>
+  </si>
+  <si>
+    <t>Mensaje en pantalla "contraseñas no coinciden"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debe usar una o mas vocales con signos ortograficos en el nombre para el registro </t>
+  </si>
+  <si>
+    <t>Se debe validar que al registrar un usuario con nombre, email y contraseña, este sea exitoso</t>
+  </si>
+  <si>
+    <t>Se debe ingresar 2 palabra en el campo nombre a la hora de hacer el registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debe ingresar un correo electronico que cumpla el estandar </t>
+  </si>
+  <si>
+    <t>Se debe ingresar un correo ya registrado para validar que este no permita correos repetidos</t>
+  </si>
+  <si>
+    <t>Se debe ingresar una contraseña de  8 caractares incluyendo una mayúscula, una minúscula, un número y un carácter especial para validar que este permita el registro</t>
+  </si>
+  <si>
+    <t>Se debe ingresar una contraseña de  7 caractares o menos para validar que este no permita el registro</t>
+  </si>
+  <si>
+    <t>Se debe ingresar una contraseña de  8 caractares sin incluir un tipo de carácter ya sea  una mayúscula, una minúscula, un número y un carácter especial para validar que este permita el registro</t>
+  </si>
+  <si>
+    <t>Se debe intentar loguearse sin haber ingresado todos los campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debe loguear y revisar que el nombre del usuario si este visible en pantalla </t>
+  </si>
+  <si>
+    <t>Acceso a la pagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso a la pagina
+</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Nombre caso de prueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos de entrada </t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957D0892-956A-430E-A1C5-AF9148E71975}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,22 +618,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -641,22 +641,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -664,22 +664,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -687,22 +687,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -710,22 +710,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -733,22 +733,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -756,22 +756,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -779,22 +779,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -802,22 +802,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -825,22 +825,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -848,22 +848,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -871,22 +871,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -894,22 +894,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -917,22 +917,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -940,22 +940,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
